--- a/요구사항 명세서 양식.xlsx
+++ b/요구사항 명세서 양식.xlsx
@@ -9,10 +9,11 @@
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
     <sheet name="시트1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$B$2:$I$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'시트1 (2)'!$B$2:$I$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'시트1 (2)'!$B$2:$H$61</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="254">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -8085,56 +8086,672 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>수강 과목 신청</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동로그인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 테이블 생성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -8144,298 +8761,73 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>([</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의시간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>담당교수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기간을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록한다</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강과목을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -8445,14 +8837,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -8462,135 +8856,398 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>있다</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강과목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의코드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네이버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카카오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간편가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">회원가입
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문자로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -8600,527 +9257,116 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의명으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과목을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색한다</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목 확인</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과목을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의코드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의교수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의일정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이수구분</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분반</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숫자로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이루어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이하여야한다</t>
     </r>
     <r>
       <rPr>
@@ -9140,12 +9386,1164 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>비밀번호는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문자로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문자와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숫자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이하여야한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반회원은 회원정보를 입력하여 회원가입을 할 수 있다. 네이버, 카카오 간편가입 
+-아이디, 비밀번호, 비밀번호 확인, 전화번호, 이름, 성별, 생일, 주소, 이메일을 입력하여 회원가입(이메일 없이 비밀번호찾기 가능한지)
+-아이디는 영문자로 시작하며, 영문자 또는 숫자로 이루어진 6자 이상 12자 이하여야한다.
+-비밀번호는 영문자로 시작하며, 영문자와 숫자가 포함된 6자 이상 15자 이하여야한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 테이블 생성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장관리자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>들어갈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치 결제 테이블 생성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이즈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실내외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장바닥</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>매치가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>늘어나는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매치번호를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> auto incre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장번호</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄표</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당일의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내역을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장별로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총결제액을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하단에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간을 선택하여 해당 기간동안의 결제내역을 일일 정산과 같은 방식으로 출력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살장 실시간 관리 페이지 출력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구장별로 화면을 분할하여 매치정보(간략)와 결제 상세정보, 다음예약(이름,번호)을 출력해준다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정팀 테이블 생성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>아이디</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Trebuchet MS"/>
         <family val="2"/>
       </rPr>
@@ -9154,7 +10552,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -9164,7 +10561,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Trebuchet MS"/>
         <family val="2"/>
       </rPr>
@@ -9173,36 +10569,1470 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계좌번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살장 메뉴 테이블 생성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제번호, 매치번호, 가격, 카드, 이체, 현금</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치번호, 풋살장번호, 구장번호, 예약자명, 예약자번호, 팀이름, 선출수, 레벨, 연령대, 내기 종류, 예약시간</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샤워실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간당가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장사이즈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장갯수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조끼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음료제공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대여료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정팀번호, 이름, 전화번호, 팀명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정팀 이용내역 테이블 생성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용내역번호, 고정팀번호, 일시, 결제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴번호, 풋살장번호, 시간당가격, 풋살화대여, 생수, 음료1, 음료2, 서비스1, 서비스2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제할때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고정팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되어있고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누르면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반결제로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전환된다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템관리자는 관리자 계정에게 풋살장 관리 권한을 주거나 변경할 수 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 관리 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 상세 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭으로 승패등록 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정팀 변환 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금액이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계산되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자가 원하는 시간대를 선택하고 예약정보를 입력하여 추가 및 수정해서 스케줄표에 반영</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간별 정산 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 정산 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정팀 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산페이지(일일)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정산페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 상세 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참고</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼을 클릭하여 남은게임수를 연장하는 결제 기능 추가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용내역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>확인</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최근</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용내역을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우선으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개까지의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기록을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여주고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크롤을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내려서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 등록 및 수정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 추가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Trebuchet MS"/>
         <family val="2"/>
       </rPr>
@@ -9211,17 +12041,15 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Trebuchet MS"/>
         <family val="2"/>
       </rPr>
@@ -9230,17 +12058,181 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주민번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 관리자 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Trebuchet MS"/>
         <family val="2"/>
       </rPr>
@@ -9249,800 +12241,11 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생구분</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학번</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교수는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교수정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">신청한다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정원이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>없다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과목을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간표로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인한다</t>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치별</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -10054,7 +12257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -10120,6 +12323,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -10174,7 +12391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10299,6 +12516,31 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -10311,6 +12553,239 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="1123950"/>
+          <a:ext cx="2419349" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400618</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315199" y="913710"/>
+          <a:ext cx="6496619" cy="2639115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>429383</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247774" y="3680337"/>
+          <a:ext cx="4058409" cy="2501856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>149879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314951" y="3562350"/>
+          <a:ext cx="4895850" cy="2740679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82985</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="1114424"/>
+          <a:ext cx="3731060" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>181446</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13877925" y="771525"/>
+          <a:ext cx="3372321" cy="4172532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10605,8 +13080,8 @@
   </sheetPr>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12233,24 +14708,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="0.42578125" customWidth="1"/>
+    <col min="5" max="5" width="85.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" customWidth="1"/>
+    <col min="10" max="10" width="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12262,8 +14737,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -12279,1212 +14753,899 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
+      <c r="F2" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="25" t="s">
-        <v>183</v>
+      <c r="D3" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
-        <v>184</v>
+      <c r="D4" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+        <v>215</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="25" t="s">
-        <v>187</v>
+      <c r="D5" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+        <v>201</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="19" t="s">
-        <v>12</v>
-      </c>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>189</v>
       </c>
+      <c r="E6" s="42" t="s">
+        <v>214</v>
+      </c>
       <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
-        <v>13</v>
-      </c>
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>191</v>
+      <c r="D7" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>216</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="19" t="s">
-        <v>14</v>
-      </c>
+      <c r="B8" s="21"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>193</v>
+      <c r="D8" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>218</v>
       </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="21"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="21"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="19" t="s">
-        <v>20</v>
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22"/>
+      <c r="D12" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>194</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="12"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
-      <c r="B13" s="13" t="s">
-        <v>57</v>
+      <c r="B13" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="D13" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>195</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="19" t="s">
-        <v>58</v>
+      <c r="A14" s="12"/>
+      <c r="B14" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>190</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+      <c r="B16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="47"/>
     </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="9"/>
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
-      <c r="B19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="9"/>
+      <c r="B19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="9"/>
+      <c r="B20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="9"/>
+      <c r="B21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
-      <c r="B22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>207</v>
+      </c>
       <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="9"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>238</v>
+      </c>
       <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>245</v>
+      </c>
       <c r="F24" s="17"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="9"/>
+      <c r="B25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>224</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="F27" s="17"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
-      <c r="B28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="26"/>
+      <c r="B28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="12"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
-      <c r="B30" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="31"/>
+      <c r="B30" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="26"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
-      <c r="B31" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
+      <c r="B31" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="26"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
+      <c r="B32" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="36"/>
       <c r="F32" s="17"/>
       <c r="G32" s="26"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
-      <c r="B33" s="13" t="s">
-        <v>77</v>
-      </c>
+      <c r="B33" s="21"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="16"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="13"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="9"/>
+      <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
-      <c r="B34" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="13"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="9"/>
+      <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="27"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="12"/>
+    <row r="36" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="12"/>
+    <row r="37" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="17"/>
       <c r="G38" s="26"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="9"/>
+    <row r="39" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
-      <c r="B40" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="17"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="43"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="17"/>
       <c r="G41" s="26"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="9"/>
+      <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
-      <c r="B42" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="16"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="13"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
-      <c r="B43" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="13"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="9"/>
+      <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-      <c r="B44" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="17"/>
       <c r="G44" s="26"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="9"/>
+      <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="12"/>
+    <row r="45" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
-      <c r="B46" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="14"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="46"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="9"/>
+      <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="42"/>
       <c r="F47" s="17"/>
-      <c r="G47" s="13"/>
+      <c r="G47" s="14"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="9"/>
+      <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
-      <c r="B48" s="19" t="s">
-        <v>92</v>
-      </c>
+      <c r="B48" s="19"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="34"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="42"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="13"/>
+      <c r="G48" s="14"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
-      <c r="B49" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="B49" s="13"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="34"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="42"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="9"/>
+      <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="B50" s="19"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="9"/>
+      <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
-      <c r="B51" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="B51" s="13"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="17"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="31"/>
       <c r="G51" s="26"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="9"/>
+      <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
-      <c r="B52" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="B52" s="19"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="34"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="26"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="36"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="26"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
-      <c r="B54" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="B54" s="19"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="34"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="26"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="9"/>
+      <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
-      <c r="B55" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="B55" s="13"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="34"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="36"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="26"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="9"/>
+      <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="12"/>
+    <row r="56" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="9"/>
+    <row r="57" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
-      <c r="B58" s="19" t="s">
-        <v>102</v>
-      </c>
+      <c r="B58" s="19"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="34"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="26"/>
+      <c r="G58" s="13"/>
       <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="9"/>
+      <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
-      <c r="B59" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="34"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="26"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="12"/>
+    <row r="60" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="34"/>
+    <row r="61" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="17"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="9"/>
+      <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="10" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
-      <c r="B62" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="26"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="9"/>
+      <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="9"/>
+    <row r="63" spans="1:9" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
     </row>
-    <row r="64" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="9"/>
-    </row>
-    <row r="65" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="9"/>
-    </row>
-    <row r="66" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="9"/>
-    </row>
-    <row r="67" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="9"/>
-    </row>
-    <row r="68" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="9"/>
-    </row>
-    <row r="69" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="9"/>
-    </row>
-    <row r="70" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="9"/>
-    </row>
-    <row r="71" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="9"/>
-    </row>
-    <row r="72" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="9"/>
-    </row>
-    <row r="74" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="9"/>
-    </row>
-    <row r="75" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="9"/>
-    </row>
-    <row r="76" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="9"/>
-    </row>
-    <row r="77" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="9"/>
-    </row>
-    <row r="78" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="12"/>
-    </row>
-    <row r="79" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="9"/>
-    </row>
-    <row r="80" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="9"/>
-    </row>
-    <row r="81" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="9"/>
-    </row>
-    <row r="82" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="1:10" s="10" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="9"/>
-    </row>
-    <row r="84" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I82">
+  <autoFilter ref="B2:H61">
     <sortState ref="B2:I81">
       <sortCondition ref="B2:B81"/>
       <sortCondition ref="F2:F81"/>
@@ -13496,4 +15657,41 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/요구사항 명세서 양식.xlsx
+++ b/요구사항 명세서 양식.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_khj\java_khj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="630" yWindow="585" windowWidth="18015" windowHeight="10575" activeTab="1"/>
   </bookViews>
@@ -13,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$B$2:$I$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'시트1 (2)'!$B$2:$H$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'시트1 (2)'!$B$2:$H$60</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -25,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="265">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -8161,47 +8166,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>일반회원</t>
     </r>
     <r>
@@ -8319,140 +8283,125 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일반회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -8462,16 +8411,14 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -8481,7 +8428,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Trebuchet MS"/>
         <family val="2"/>
       </rPr>
@@ -8493,91 +8439,26 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찾기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -8587,14 +8468,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -8604,14 +8487,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -8621,14 +8506,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -8638,6 +8525,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Trebuchet MS"/>
         <family val="2"/>
       </rPr>
@@ -8646,928 +8534,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자동로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 계정 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>네이버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카카오</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간편가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전화번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">회원가입
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영문자로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작하며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영문자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숫자로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이루어진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이하여야한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영문자로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작하며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영문자와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숫자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포함된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이하여야한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -9652,264 +8619,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>풋살장관리자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이블</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이블에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들어갈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>권한을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>풋살장</t>
     </r>
     <r>
@@ -10532,644 +9241,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전화번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계좌번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>권한</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>풋살장 메뉴 테이블 생성</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>결제번호, 매치번호, 가격, 카드, 이체, 현금</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치번호, 풋살장번호, 구장번호, 예약자명, 예약자번호, 팀이름, 선출수, 레벨, 연령대, 내기 종류, 예약시간</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장주소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주차장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>샤워실</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간당가격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장상세</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>텍스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장사이즈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장갯수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서비스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>텍스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조끼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음료제공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>텍스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대여료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정팀번호, 이름, 전화번호, 팀명</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>고정팀 이용내역 테이블 생성</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>이용내역번호, 고정팀번호, 일시, 결제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴번호, 풋살장번호, 시간당가격, 풋살화대여, 생수, 음료1, 음료2, 서비스1, 서비스2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -11338,10 +9417,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>클릭으로 승패등록 기능</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>고정팀 변환 기능</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -11455,188 +9530,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부분</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>금액이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계산되어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>스케줄 페이지</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -11756,10 +9649,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>버튼을 클릭하여 남은게임수를 연장하는 결제 기능 추가</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -12017,132 +9906,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>결제 추가</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서비스를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클릭하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>날짜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -12176,51 +9939,345 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예약</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 페이지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>시스템 관리자 페이지</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>관리자 페이지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>필터 기능</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>메뉴 추가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 추가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금액을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차감시킬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼을 클릭하여 남은게임수를 연장시키는 결제 기능 추가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살화등의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반영한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크박스를 클릭하여 승리팀 체크, 결제 상세페이지에 금액을 나눠주는 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>매치번호, 풋살장번호, 구장번호, 예약자명, 예약자번호, 팀이름, 선출수, 레벨, 연령대, 내기 종류, 예약시간, 상대팀 필요여부</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용내역번호, 고정팀번호, 일시, 결제액, 결제구분(추가/이용)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정팀번호, 이름, 전화번호, 팀명, 남은게임수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제번호, 매치번호, 사용시간(ex 2시간), 풋살화, 물, 음료1, 음료2, 카드, 이체, 현금</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴번호, 풋살장번호, 시간당가격, 풋살화대여, 물, 음료1, 음료2, 서비스1, 서비스2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -12247,13 +10304,2456 @@
       </rPr>
       <t>위치별</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살장 상세 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장명을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구장 관리자 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>들어갈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네이버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카카오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간편가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">회원가입
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문자로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숫자로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이루어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이하여야한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문자로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문자와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숫자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이하여야한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금액이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계산되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인증</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내기의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록한다</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샤워실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간당가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장사이즈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장갯수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대여료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
@@ -12391,7 +12891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12541,6 +13041,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -12550,6 +13053,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -12597,16 +13103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104085</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>132660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>400618</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238693</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12623,7 +13129,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315199" y="913710"/>
+          <a:off x="10201274" y="4828485"/>
           <a:ext cx="6496619" cy="2639115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12749,16 +13255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>181446</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>86307</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>229071</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>124407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12775,7 +13281,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13877925" y="771525"/>
+          <a:off x="12706350" y="0"/>
           <a:ext cx="3372321" cy="4172532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12831,7 +13337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12866,7 +13372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13080,7 +13586,7 @@
   </sheetPr>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -14708,10 +15214,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14754,10 +15260,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>6</v>
@@ -14769,30 +15275,34 @@
       <c r="B3" s="21"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="I3" s="9"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="21"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="47"/>
     </row>
@@ -14801,14 +15311,16 @@
       <c r="B5" s="21"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="47"/>
     </row>
@@ -14817,14 +15329,14 @@
       <c r="B6" s="21"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="9"/>
@@ -14835,10 +15347,10 @@
       <c r="B7" s="21"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="14"/>
@@ -14851,10 +15363,10 @@
       <c r="B8" s="21"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="14"/>
@@ -14867,10 +15379,10 @@
       <c r="B9" s="21"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="26"/>
@@ -14883,10 +15395,10 @@
       <c r="B10" s="21"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="26"/>
@@ -14909,14 +15421,16 @@
     <row r="12" spans="1:10" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="14"/>
+        <v>221</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="D12" s="29" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
@@ -14929,14 +15443,18 @@
       <c r="B13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="D13" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="17"/>
+        <v>192</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>260</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="H13" s="14"/>
       <c r="I13" s="9"/>
@@ -14947,12 +15465,14 @@
       <c r="B14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="D14" s="29" t="s">
         <v>183</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
@@ -14965,12 +15485,14 @@
       <c r="B15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="40" t="s">
+        <v>250</v>
+      </c>
       <c r="D15" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
@@ -14983,12 +15505,14 @@
       <c r="B16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="D16" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
@@ -15001,13 +15525,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="26"/>
@@ -15024,10 +15548,10 @@
         <v>251</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="26"/>
@@ -15040,13 +15564,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>243</v>
-      </c>
       <c r="E19" s="42" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="27"/>
@@ -15059,13 +15583,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F20" s="46"/>
       <c r="G20" s="26"/>
@@ -15078,13 +15602,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="26"/>
@@ -15097,13 +15621,13 @@
         <v>57</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="13"/>
@@ -15116,13 +15640,13 @@
         <v>58</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="13"/>
@@ -15135,13 +15659,13 @@
         <v>59</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="13"/>
@@ -15149,23 +15673,23 @@
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="9"/>
+        <v>235</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
@@ -15173,17 +15697,17 @@
         <v>61</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+        <v>212</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -15192,13 +15716,13 @@
         <v>62</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>228</v>
+        <v>214</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>239</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="13"/>
@@ -15211,13 +15735,13 @@
         <v>63</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>240</v>
+        <v>212</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="13"/>
@@ -15230,13 +15754,13 @@
         <v>64</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>242</v>
+        <v>220</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>237</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="13"/>
@@ -15249,30 +15773,30 @@
         <v>65</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="E30" s="34"/>
+        <v>227</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="26"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
-      <c r="B31" s="21" t="s">
-        <v>66</v>
-      </c>
+      <c r="B31" s="21"/>
       <c r="C31" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>252</v>
+        <v>212</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="26"/>
@@ -15281,16 +15805,10 @@
     </row>
     <row r="32" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E32" s="36"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="17"/>
       <c r="G32" s="26"/>
       <c r="H32" s="13"/>
@@ -15300,8 +15818,8 @@
       <c r="A33" s="9"/>
       <c r="B33" s="21"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="17"/>
       <c r="G33" s="26"/>
       <c r="H33" s="13"/>
@@ -15310,7 +15828,7 @@
     <row r="34" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="21"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="13"/>
       <c r="E34" s="34"/>
       <c r="F34" s="17"/>
@@ -15319,33 +15837,47 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="12"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="34"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>245</v>
+      </c>
       <c r="F36" s="17"/>
-      <c r="G36" s="13"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="13"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="34"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="F37" s="17"/>
       <c r="G37" s="26"/>
       <c r="H37" s="13"/>
@@ -15353,9 +15885,11 @@
     </row>
     <row r="38" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="13"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="14" t="s">
+        <v>249</v>
+      </c>
       <c r="E38" s="34"/>
       <c r="F38" s="17"/>
       <c r="G38" s="26"/>
@@ -15363,30 +15897,32 @@
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="34"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="13"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="13"/>
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="13"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="34"/>
@@ -15397,7 +15933,7 @@
     </row>
     <row r="42" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="34"/>
@@ -15408,7 +15944,7 @@
     </row>
     <row r="43" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
-      <c r="B43" s="13"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="34"/>
@@ -15419,40 +15955,40 @@
     </row>
     <row r="44" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-      <c r="B44" s="19"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="34"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="26"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
-      <c r="B45" s="13"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="17"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="46"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
-      <c r="B46" s="19"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="14"/>
       <c r="H46" s="13"/>
       <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="13"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
       <c r="E47" s="42"/>
@@ -15463,7 +15999,7 @@
     </row>
     <row r="48" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
-      <c r="B48" s="19"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
       <c r="E48" s="42"/>
@@ -15474,18 +16010,18 @@
     </row>
     <row r="49" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
-      <c r="B49" s="13"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
       <c r="E49" s="42"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="14"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="13"/>
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="19"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
       <c r="E50" s="42"/>
@@ -15496,18 +16032,18 @@
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
-      <c r="B51" s="13"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="26"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
-      <c r="B52" s="19"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="34"/>
@@ -15518,7 +16054,7 @@
     </row>
     <row r="53" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="13"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="34"/>
@@ -15529,10 +16065,10 @@
     </row>
     <row r="54" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
-      <c r="B54" s="19"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="34"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="17"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
@@ -15540,42 +16076,42 @@
     </row>
     <row r="55" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
-      <c r="B55" s="13"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="36"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="17"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="9"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="12"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="28"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="36"/>
       <c r="F58" s="17"/>
       <c r="G58" s="13"/>
@@ -15584,9 +16120,9 @@
     </row>
     <row r="59" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
-      <c r="B59" s="13"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="36"/>
       <c r="F59" s="17"/>
       <c r="G59" s="13"/>
@@ -15594,58 +16130,47 @@
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="13"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="28"/>
-      <c r="E60" s="36"/>
+      <c r="E60" s="37"/>
       <c r="F60" s="17"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="17"/>
+    <row r="61" spans="1:9" s="10" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="8"/>
+      <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:9" s="10" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+    <row r="62" spans="1:9" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="9"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
     </row>
-    <row r="63" spans="1:9" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H61">
+  <autoFilter ref="B2:H60">
     <sortState ref="B2:I81">
       <sortCondition ref="B2:B81"/>
       <sortCondition ref="F2:F81"/>
@@ -15664,20 +16189,20 @@
   <dimension ref="C7:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7" s="50" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
       <c r="G7" s="52" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="51"/>

--- a/요구사항 명세서 양식.xlsx
+++ b/요구사항 명세서 양식.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_khj\java_khj\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="585" windowWidth="18015" windowHeight="10575" activeTab="1"/>
+    <workbookView xWindow="630" yWindow="585" windowWidth="18015" windowHeight="10575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
-    <sheet name="시트1 (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="시트1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$B$2:$I$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'시트1 (2)'!$B$2:$H$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'시트1 (2)'!$B$2:$H$44</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -30,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="237">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -8139,47 +8134,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일반회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>자동로그인</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8237,6 +8191,260 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>이메일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>풋살장</t>
     </r>
     <r>
@@ -8254,388 +8462,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>테이블</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치 테이블 생성</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찾기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자동로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 계정 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반회원은 회원정보를 입력하여 회원가입을 할 수 있다. 네이버, 카카오 간편가입 
--아이디, 비밀번호, 비밀번호 확인, 전화번호, 이름, 성별, 생일, 주소, 이메일을 입력하여 회원가입(이메일 없이 비밀번호찾기 가능한지)
--아이디는 영문자로 시작하며, 영문자 또는 숫자로 이루어진 6자 이상 12자 이하여야한다.
--비밀번호는 영문자로 시작하며, 영문자와 숫자가 포함된 6자 이상 15자 이하여야한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이블</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 테이블 생성</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>상세</t>
     </r>
     <r>
@@ -8705,107 +8531,6 @@
         <charset val="129"/>
       </rPr>
       <t>요청</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치 결제 테이블 생성</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사이즈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실내외</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장바닥</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8814,129 +8539,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>매치가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계속</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>늘어나는데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매치번호를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> auto incre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>되는지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장번호</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>스케줄표</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -9229,26 +8831,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>풋살장 실시간 관리 페이지 출력</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>구장별로 화면을 분할하여 매치정보(간략)와 결제 상세정보, 다음예약(이름,번호)을 출력해준다</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정팀 테이블 생성</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>풋살장 메뉴 테이블 생성</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정팀 이용내역 테이블 생성</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -9402,10 +8984,6 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템관리자는 관리자 계정에게 풋살장 관리 권한을 주거나 변경할 수 있다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -9538,22 +9116,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>기간별 정산 페이지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일 정산 페이지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>고정팀 페이지</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-0001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>정산페이지(일일)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -9595,313 +9161,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>결제 상세 페이지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상세페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참고</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>결제 기능</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이용내역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최근</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이용내역을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우선으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개까지의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기록을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보여주고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스크롤을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내려서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>예약 등록 및 수정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -9910,6 +9173,1776 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>메뉴 추가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 추가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금액을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차감시킬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼을 클릭하여 남은게임수를 연장시키는 결제 기능 추가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살화등의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반영한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크박스를 클릭하여 승리팀 체크, 결제 상세페이지에 금액을 나눠주는 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구장 관리자 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금액이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계산되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내기의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록한다</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네이버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카카오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간편가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">회원가입
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제외한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나머지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수입력이고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">허용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숫자로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이루어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이하</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문소문자로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문자와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숫자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특수문자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(!@#)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8~16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 권한 부여</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살장 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -9934,8 +10967,258 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>검색</t>
-    </r>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>들어갈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풋살장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -9943,43 +11226,38 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>필터 기능</t>
+    <t>시스템 관리자는 회원의 권한을 설정할수있다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴 추가</t>
+    <t>시스템 관리자는 풋살장 정보를 입력하여 풋살장을 등록할 수 있다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>서비스 추가</t>
+    <t>정산 페이지</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼을</t>
+    <t>고정팀 등록 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 관리자는 고정팀을 등록할 수 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 상세 페이지 보기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기를</t>
     </r>
     <r>
       <rPr>
@@ -10013,2747 +11291,108 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>금액을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차감시킬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼을 클릭하여 남은게임수를 연장시키는 결제 기능 추가</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클릭하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살화등의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메뉴를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제테이블에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반영한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크박스를 클릭하여 승리팀 체크, 결제 상세페이지에 금액을 나눠주는 기능</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>매치번호, 풋살장번호, 구장번호, 예약자명, 예약자번호, 팀이름, 선출수, 레벨, 연령대, 내기 종류, 예약시간, 상대팀 필요여부</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용내역번호, 고정팀번호, 일시, 결제액, 결제구분(추가/이용)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정팀번호, 이름, 전화번호, 팀명, 남은게임수</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제번호, 매치번호, 사용시간(ex 2시간), 풋살화, 물, 음료1, 음료2, 카드, 이체, 현금</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴번호, 풋살장번호, 시간당가격, 풋살화대여, 물, 음료1, 음료2, 서비스1, 서비스2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위치별</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>풋살장 상세 페이지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상세</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장명을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이용해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 기능</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>구장 관리자 페이지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이블</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이블에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들어갈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>권한을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일반회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>경기에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Trebuchet MS"/>
         <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>네이버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카카오</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간편가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전화번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">회원가입
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영문자로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작하며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영문자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숫자로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이루어진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이하여야한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영문자로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작하며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영문자와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숫자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포함된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이하여야한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전화번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>권한</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좋아요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>또는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부분</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>금액이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계산되어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인증</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내기의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종류를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록한다</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살장주소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주차장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>샤워실</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간당가격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장상세</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>텍스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장사이즈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구장갯수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>텍스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풋살화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대여료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
@@ -12891,7 +11530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13016,9 +11655,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13040,9 +11676,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13337,7 +11970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13372,7 +12005,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15210,14 +13843,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15248,7 +13918,7 @@
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -15259,490 +13929,426 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>198</v>
+      <c r="F2" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>189</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="14" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
       <c r="B4" s="21"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="47"/>
+        <v>222</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14" t="s">
-        <v>264</v>
-      </c>
+      <c r="C5" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="47"/>
+      <c r="J5" s="46"/>
     </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>240</v>
+      <c r="C6" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="F6" s="17"/>
-      <c r="G6" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>229</v>
+      </c>
       <c r="D7" s="14" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+        <v>230</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="14" t="s">
+        <v>225</v>
+      </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="47"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>229</v>
+      </c>
       <c r="D8" s="14" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="14"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="47"/>
+      <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
       <c r="B9" s="21"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>244</v>
+      <c r="C9" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="47"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>196</v>
+      <c r="C10" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>206</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="14"/>
+        <v>201</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="48"/>
+      <c r="C11" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="21" t="s">
-        <v>221</v>
-      </c>
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>254</v>
+        <v>195</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="48"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:10" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="21" t="s">
-        <v>10</v>
-      </c>
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="47"/>
+        <v>195</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>253</v>
+        <v>196</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>213</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="47"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>190</v>
+      <c r="B15" s="21"/>
+      <c r="C15" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="B16" s="21"/>
       <c r="C16" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="B17" s="21"/>
       <c r="C17" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="31"/>
+        <v>196</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="17"/>
       <c r="G17" s="26"/>
       <c r="H17" s="13"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="47"/>
     </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>195</v>
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>203</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="26"/>
+        <v>192</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
-      <c r="B19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>229</v>
+      <c r="B19" s="21"/>
+      <c r="C19" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="19"/>
+        <v>193</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
-      <c r="B22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>203</v>
-      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="13"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="13"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>225</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="17"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>238</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="13"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>236</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>239</v>
-      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="13"/>
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
-      <c r="B28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>259</v>
-      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="17"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -15750,149 +14356,111 @@
     </row>
     <row r="29" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
-      <c r="B29" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
-      <c r="B30" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>228</v>
-      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="13"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>262</v>
-      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="26"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="13"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="26"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="13"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="26"/>
       <c r="H33" s="13"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="17"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="26"/>
       <c r="H34" s="13"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>248</v>
-      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>245</v>
-      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="26"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>247</v>
-      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="26"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E38" s="34"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="26"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="9"/>
     </row>
@@ -15900,9 +14468,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="19"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="D39" s="13"/>
       <c r="E39" s="34"/>
       <c r="F39" s="17"/>
       <c r="G39" s="13"/>
@@ -15910,24 +14476,24 @@
       <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="9"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="19"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="34"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="26"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="9"/>
     </row>
@@ -15936,9 +14502,9 @@
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="34"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="26"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="9"/>
     </row>
@@ -15946,231 +14512,55 @@
       <c r="A43" s="9"/>
       <c r="B43" s="19"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="34"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="26"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="34"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="17"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="10" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="46"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="9"/>
+    <row r="46" spans="1:9" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:9" s="10" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H60">
+  <autoFilter ref="B2:H44">
     <sortState ref="B2:I81">
       <sortCondition ref="B2:B81"/>
       <sortCondition ref="F2:F81"/>
@@ -16182,41 +14572,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/요구사항 명세서 양식.xlsx
+++ b/요구사항 명세서 양식.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_khj\java_khj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="630" yWindow="585" windowWidth="18015" windowHeight="10575" activeTab="2"/>
   </bookViews>
@@ -25,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="238">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -9161,10 +9166,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>결제 기능</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>예약 등록 및 수정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -9303,10 +9304,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>버튼을 클릭하여 남은게임수를 연장시키는 결제 기능 추가</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -9471,10 +9468,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>구장 관리자 페이지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -11386,13 +11379,29 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정팀 남은게임수 조정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼을 클릭하여 남은게임수를 연장시키거나 줄이는 기능 추가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
@@ -11970,7 +11979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12005,7 +12014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13887,7 +13896,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13918,7 +13927,7 @@
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -13930,7 +13939,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>189</v>
@@ -13944,18 +13953,18 @@
       <c r="A3" s="9"/>
       <c r="B3" s="21"/>
       <c r="C3" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
       <c r="H3" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="47"/>
@@ -13964,18 +13973,18 @@
       <c r="A4" s="12"/>
       <c r="B4" s="21"/>
       <c r="C4" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>183</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
       <c r="H4" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="46"/>
@@ -13984,7 +13993,7 @@
       <c r="A5" s="9"/>
       <c r="B5" s="21"/>
       <c r="C5" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>184</v>
@@ -13994,7 +14003,9 @@
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>236</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="46"/>
     </row>
@@ -14002,7 +14013,7 @@
       <c r="A6" s="9"/>
       <c r="B6" s="21"/>
       <c r="C6" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>185</v>
@@ -14013,7 +14024,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
       <c r="H6" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -14021,18 +14032,18 @@
       <c r="A7" s="9"/>
       <c r="B7" s="21"/>
       <c r="C7" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="26"/>
       <c r="H7" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="46"/>
@@ -14041,17 +14052,19 @@
       <c r="A8" s="9"/>
       <c r="B8" s="21"/>
       <c r="C8" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>236</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="46"/>
     </row>
@@ -14059,13 +14072,13 @@
       <c r="A9" s="12"/>
       <c r="B9" s="21"/>
       <c r="C9" s="14" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>188</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="26"/>
@@ -14079,7 +14092,7 @@
         <v>200</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>201</v>
@@ -14096,10 +14109,10 @@
         <v>195</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="13"/>
@@ -14113,10 +14126,10 @@
         <v>195</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="13"/>
@@ -14130,10 +14143,10 @@
         <v>195</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="13"/>
@@ -14150,7 +14163,7 @@
         <v>198</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="13"/>
@@ -14167,7 +14180,7 @@
         <v>199</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="13"/>
@@ -14198,10 +14211,10 @@
         <v>196</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="26"/>
@@ -14212,7 +14225,7 @@
       <c r="A18" s="9"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>203</v>
@@ -14229,7 +14242,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="21"/>
       <c r="C19" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>204</v>
@@ -14246,13 +14259,13 @@
       <c r="A20" s="9"/>
       <c r="B20" s="21"/>
       <c r="C20" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="26"/>
@@ -14267,10 +14280,10 @@
         <v>202</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="13"/>
